--- a/SkillHeaderTool(Build)/SkillList/Skills.xlsx
+++ b/SkillHeaderTool(Build)/SkillList/Skills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#Practice\LoadSkills\LoadSkills\bin\Debug\net6.0\SkillList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#Practice\LoadSkills\SkillHeaderTool(Build)\SkillList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087A46A-B75F-4D04-9BB6-9A6785EA9927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F79897-C03B-4378-AD7B-E84A2140FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A83F7906-4C39-446B-BFC9-47E876EBAC5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>EnumName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AngleBless</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여신의 가호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,7 +310,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쉴드 관통</t>
+    <t>결투의 대가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실드 관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngelBless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emergency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Captin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌격대장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 효율 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperCharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼 차지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승부사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정된 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에테르 포식자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD21EB22-6C96-42FB-915C-91AA35CC0B84}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -932,7 +1004,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -993,66 +1065,138 @@
     </row>
     <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
